--- a/data/trans_orig/P14C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15787168-6A1D-48DD-B3C2-F379A83266D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3616C64-EABE-478A-9198-59562D3DA03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B50F711-AADC-453D-AE47-D08E9DB00375}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4A11F81-46EE-4B04-8C3A-EF22D454AB51}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="173">
   <si>
     <t>Población según el tiempo de diagnóstico de la hipertensión en 2015 (Tasa respuesta: 15,71%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>78,63%</t>
   </si>
   <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>79,3%</t>
   </si>
   <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>21,37%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>20,7%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -155,82 +155,82 @@
     <t>67,63%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>75,64%</t>
   </si>
   <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -239,61 +239,61 @@
     <t>68,22%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>72,91%</t>
   </si>
   <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>70,67%</t>
   </si>
   <si>
-    <t>75,54%</t>
+    <t>65,06%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>1,93%</t>
@@ -302,16 +302,16 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>5,63%</t>
+    <t>6,38%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -320,82 +320,79 @@
     <t>68,37%</t>
   </si>
   <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>75,78%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>36,85%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -404,160 +401,157 @@
     <t>74,24%</t>
   </si>
   <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>78,2%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>5,82%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>1,53%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -972,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BED53A-12C0-4714-BD02-CB80220C0767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614F540A-3134-448E-860E-EC49F83F7467}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1541,10 +1535,10 @@
         <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,10 +1762,10 @@
         <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -1780,13 +1774,13 @@
         <v>18083</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -1795,13 +1789,13 @@
         <v>47513</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1810,13 @@
         <v>4587</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1831,13 +1825,13 @@
         <v>6535</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -1846,13 +1840,13 @@
         <v>11122</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1902,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1920,13 +1914,13 @@
         <v>105180</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -1935,13 +1929,13 @@
         <v>146156</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -1950,13 +1944,13 @@
         <v>251336</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1965,13 @@
         <v>33763</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -1986,13 +1980,13 @@
         <v>25588</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -2001,13 +1995,13 @@
         <v>59351</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,10 +2019,10 @@
         <v>86</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2037,13 +2031,13 @@
         <v>7963</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2052,13 +2046,13 @@
         <v>10699</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2120,13 @@
         <v>358409</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>415</v>
@@ -2141,13 +2135,13 @@
         <v>487418</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>775</v>
@@ -2156,13 +2150,13 @@
         <v>845827</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2171,13 @@
         <v>127036</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -2192,13 +2186,13 @@
         <v>105197</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>212</v>
@@ -2207,13 +2201,13 @@
         <v>232233</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2222,13 @@
         <v>24320</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -2243,13 +2237,13 @@
         <v>24467</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -2258,13 +2252,13 @@
         <v>48787</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2314,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C03-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3616C64-EABE-478A-9198-59562D3DA03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65302153-ABDC-41C6-A8FA-2EF0C5683C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4A11F81-46EE-4B04-8C3A-EF22D454AB51}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F915292D-C839-4E14-ADE5-AEA38E4215E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="173">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la hipertensión en 2015 (Tasa respuesta: 15,71%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la hipertensión en 2016 (Tasa respuesta: 15,71%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -74,28 +74,28 @@
     <t>78,63%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>79,3%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>21,37%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
   </si>
   <si>
     <t>20,7%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -149,250 +149,253 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>75,64%</t>
   </si>
   <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>72,91%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>70,67%</t>
   </si>
   <si>
-    <t>65,06%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>68,37%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>75,78%</t>
   </si>
   <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>36,85%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -401,157 +404,157 @@
     <t>74,24%</t>
   </si>
   <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>78,2%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>82,47%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -966,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614F540A-3134-448E-860E-EC49F83F7467}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C4C000-61CB-4A06-8504-7E9AAD165BA0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1413,13 +1416,13 @@
         <v>6632</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -1428,13 +1431,13 @@
         <v>11637</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1490,7 +1493,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1502,13 +1505,13 @@
         <v>107977</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>105</v>
@@ -1517,13 +1520,13 @@
         <v>126129</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>210</v>
@@ -1532,13 +1535,13 @@
         <v>234105</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,10 +1765,10 @@
         <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -1774,13 +1777,13 @@
         <v>18083</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -1789,13 +1792,13 @@
         <v>47513</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1813,13 @@
         <v>4587</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1825,13 +1828,13 @@
         <v>6535</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -1840,13 +1843,13 @@
         <v>11122</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1905,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1914,13 +1917,13 @@
         <v>105180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>120</v>
@@ -1929,13 +1932,13 @@
         <v>146156</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -1944,10 +1947,10 @@
         <v>251336</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>128</v>
@@ -2052,7 +2055,7 @@
         <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2123,13 @@
         <v>358409</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>415</v>
@@ -2135,13 +2138,13 @@
         <v>487418</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>775</v>
@@ -2150,13 +2153,13 @@
         <v>845827</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2174,13 @@
         <v>127036</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -2186,13 +2189,13 @@
         <v>105197</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>212</v>
@@ -2201,13 +2204,13 @@
         <v>232233</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2225,13 @@
         <v>24320</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -2237,13 +2240,13 @@
         <v>24467</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -2252,13 +2255,13 @@
         <v>48787</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2317,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
